--- a/mappings/6_AOI_mapping.xlsx
+++ b/mappings/6_AOI_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlav736\Documents\GitHub\ahuahu_great_mercury\mappings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FAC8F5-921E-44D3-9956-93F7FA13314B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07B8F70-DFC2-4C02-9DDF-7DF36FEDE95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1151,7 +1151,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1442,7 +1442,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
